--- a/biology/Écologie/Clim'City/Clim'City.xlsx
+++ b/biology/Écologie/Clim'City/Clim'City.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clim%27City</t>
+          <t>Clim'City</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clim'City est un site web qui se compose d'une exposition virtuelle sur la lutte contre le réchauffement climatique et d'un jeu gratuit jouable en ligne. Clim'City est hébergé sur le site du CCSTI Cap Sciences Aquitaine. L'exposition virtuelle permet d'étudier l'impact des différents aspects de notre économie sur l'environnement. Le jeu propose de jouer le rôle d'un décideur qui va devoir élaborer un plan climat, compte tenu des efforts que peuvent fournir les différents acteurs de la société (citoyens, entreprises...)
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clim%27City</t>
+          <t>Clim'City</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,11 @@
           <t>Le jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Clim'City est inspiré de la célèbre série de jeux SimCity. Toutefois, la situation de départ est celle d'une ville en 2008, avec ses atouts et ses contraintes. Ses paramètres de consommation en énergie et de rejet en gaz à effet de serre sont calculés précisément pour être ceux d'une agglomération française type de 115 000 habitants[réf. nécessaire].
-Objectifs
-Le jeu consiste à choisir judicieusement les mesures écologiques à appliquer pour satisfaire aux exigences du plan climat. En 50 ans (de 2008 à 2058), il faut :
-réduire d'au moins 75 % les émissions de gaz à effet de serre ;
-réduire d'au moins 40 % la dépense en énergie ;
-produire au moins 60 % de l'énergie par des sources renouvelables ;
-réaliser au moins 20 actions d'adaptation au changement climatique.
-Progression
-Chaque action en faveur du changement climatique requiert des efforts sous forme d'investissements, d'incitations et de changements d'habitude. Le jeu commence en 2008 et une année correspond à un tour. Au début du jeu et à chaque tour, le joueur dispose d'un certain nombre de points correspondant aux efforts que chaque partie (pouvoirs publics, entreprises, particuliers) peut fournir.
 </t>
         </is>
       </c>
@@ -532,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clim%27City</t>
+          <t>Clim'City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>L'exposition virtuelle</t>
+          <t>Le jeu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'exposition virtuelle reprend le même décor que le jeu mais associe à chaque élément de l'économie de Clim'City l'ensemble des problématiques environnementales et énergétiques liées à cet élément. Les informations hiérarchisées comprennent un texte court et une vidéo.
-</t>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le jeu consiste à choisir judicieusement les mesures écologiques à appliquer pour satisfaire aux exigences du plan climat. En 50 ans (de 2008 à 2058), il faut :
+réduire d'au moins 75 % les émissions de gaz à effet de serre ;
+réduire d'au moins 40 % la dépense en énergie ;
+produire au moins 60 % de l'énergie par des sources renouvelables ;
+réaliser au moins 20 actions d'adaptation au changement climatique.</t>
         </is>
       </c>
     </row>
@@ -563,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clim%27City</t>
+          <t>Clim'City</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +593,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le jeu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Progression</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque action en faveur du changement climatique requiert des efforts sous forme d'investissements, d'incitations et de changements d'habitude. Le jeu commence en 2008 et une année correspond à un tour. Au début du jeu et à chaque tour, le joueur dispose d'un certain nombre de points correspondant aux efforts que chaque partie (pouvoirs publics, entreprises, particuliers) peut fournir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clim'City</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%27City</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'exposition virtuelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition virtuelle reprend le même décor que le jeu mais associe à chaque élément de l'économie de Clim'City l'ensemble des problématiques environnementales et énergétiques liées à cet élément. Les informations hiérarchisées comprennent un texte court et une vidéo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clim'City</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%27City</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Conception</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet a été lancé par l'institut Cap Sciences de Bordeaux. Les concepteurs ont fait appel à cinq scientifiques du GIEC, du CNRS et de l'INRA pour valider les scénarios climatiques qui peuvent se dérouler dans le jeu. Le projet total a employé trois personnes à temps plein et nécessité un budget de 150 000 €[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet a été lancé par l'institut Cap Sciences de Bordeaux. Les concepteurs ont fait appel à cinq scientifiques du GIEC, du CNRS et de l'INRA pour valider les scénarios climatiques qui peuvent se dérouler dans le jeu. Le projet total a employé trois personnes à temps plein et nécessité un budget de 150 000 €.
 </t>
         </is>
       </c>
